--- a/data til pbi/Passasjertall_metropendel.xlsx
+++ b/data til pbi/Passasjertall_metropendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsområde\github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48846023-1EC3-4B2D-B801-0C3F756B1B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AA5C00-9FC7-4D7C-AAD7-E88BDB875565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="375" windowWidth="21330" windowHeight="14505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data til pbi/Passasjertall_metropendel.xlsx
+++ b/data til pbi/Passasjertall_metropendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arbeidsområde\github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF649FF-6971-4D4D-A4C8-91530B5EB2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EBF0A-95E0-42ED-BAF8-F6EF4DFB0D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="29784" windowHeight="15804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28368" yWindow="516" windowWidth="26628" windowHeight="15804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passasjertall_metropendel" sheetId="1" r:id="rId1"/>
@@ -1234,7 +1234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1964"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E118" sqref="E2:E118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3139,7 +3141,7 @@
         <v>10</v>
       </c>
       <c r="E112">
-        <v>1377</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">

--- a/data til pbi/Passasjertall_metropendel.xlsx
+++ b/data til pbi/Passasjertall_metropendel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBB2D36-5254-444F-8249-78EB5A220F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB501A-ACCF-4B35-A895-B7C2856CDDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="420" windowWidth="19140" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26430" yWindow="150" windowWidth="19140" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Passasjertall_metropendel" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
     <t>2023/12</t>
   </si>
   <si>
-    <t>Period</t>
+    <t>2024/01</t>
   </si>
   <si>
-    <t>2024/01</t>
+    <t>Periode</t>
   </si>
 </sst>
 </file>
@@ -1287,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>8001</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2">
         <v>2024</v>
@@ -1335,7 +1335,7 @@
         <v>8002</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3">
         <v>2024</v>
@@ -1352,7 +1352,7 @@
         <v>8003</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
         <v>2024</v>
@@ -1369,7 +1369,7 @@
         <v>8004</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5">
         <v>2024</v>
@@ -1386,7 +1386,7 @@
         <v>8005</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6">
         <v>2024</v>
@@ -1403,7 +1403,7 @@
         <v>8006</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7">
         <v>2024</v>
@@ -1420,7 +1420,7 @@
         <v>8007</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>2024</v>
@@ -1437,7 +1437,7 @@
         <v>8008</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C9">
         <v>2024</v>
@@ -1454,7 +1454,7 @@
         <v>8010</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <v>2024</v>
@@ -1471,7 +1471,7 @@
         <v>8011</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C11">
         <v>2024</v>
@@ -1488,7 +1488,7 @@
         <v>8012</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12">
         <v>2024</v>
@@ -1505,7 +1505,7 @@
         <v>8013</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C13">
         <v>2024</v>
@@ -1522,7 +1522,7 @@
         <v>8014</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14">
         <v>2024</v>
@@ -1539,7 +1539,7 @@
         <v>8015</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15">
         <v>2024</v>
@@ -1556,7 +1556,7 @@
         <v>8016</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16">
         <v>2024</v>
@@ -1573,7 +1573,7 @@
         <v>8084</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17">
         <v>2024</v>
@@ -1590,7 +1590,7 @@
         <v>8101</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C18">
         <v>2024</v>
@@ -1607,7 +1607,7 @@
         <v>8102</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C19">
         <v>2024</v>
@@ -1624,7 +1624,7 @@
         <v>8103</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C20">
         <v>2024</v>
@@ -1641,7 +1641,7 @@
         <v>8104</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21">
         <v>2024</v>
@@ -1658,7 +1658,7 @@
         <v>8111</v>
       </c>
       <c r="B22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22">
         <v>2024</v>
@@ -1675,7 +1675,7 @@
         <v>8113</v>
       </c>
       <c r="B23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>2024</v>
@@ -1692,7 +1692,7 @@
         <v>8115</v>
       </c>
       <c r="B24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C24">
         <v>2024</v>
@@ -1709,7 +1709,7 @@
         <v>8116</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25">
         <v>2024</v>
@@ -1726,7 +1726,7 @@
         <v>8117</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26">
         <v>2024</v>
@@ -1743,7 +1743,7 @@
         <v>8121</v>
       </c>
       <c r="B27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27">
         <v>2024</v>
@@ -1760,7 +1760,7 @@
         <v>8122</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28">
         <v>2024</v>
@@ -1777,7 +1777,7 @@
         <v>8123</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29">
         <v>2024</v>
@@ -1794,7 +1794,7 @@
         <v>8127</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30">
         <v>2024</v>
@@ -1811,7 +1811,7 @@
         <v>8128</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31">
         <v>2024</v>
@@ -1828,7 +1828,7 @@
         <v>8129</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C32">
         <v>2024</v>
@@ -1845,7 +1845,7 @@
         <v>8131</v>
       </c>
       <c r="B33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C33">
         <v>2024</v>
@@ -1862,7 +1862,7 @@
         <v>8132</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34">
         <v>2024</v>
@@ -1879,7 +1879,7 @@
         <v>8133</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>2024</v>
@@ -1896,7 +1896,7 @@
         <v>8135</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C36">
         <v>2024</v>
@@ -1913,7 +1913,7 @@
         <v>8136</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C37">
         <v>2024</v>
@@ -1930,7 +1930,7 @@
         <v>8141</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C38">
         <v>2024</v>
@@ -1947,7 +1947,7 @@
         <v>8142</v>
       </c>
       <c r="B39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39">
         <v>2024</v>
@@ -1964,7 +1964,7 @@
         <v>8143</v>
       </c>
       <c r="B40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40">
         <v>2024</v>
@@ -1981,7 +1981,7 @@
         <v>8144</v>
       </c>
       <c r="B41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41">
         <v>2024</v>
@@ -1998,7 +1998,7 @@
         <v>8145</v>
       </c>
       <c r="B42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42">
         <v>2024</v>
@@ -2015,7 +2015,7 @@
         <v>8146</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43">
         <v>2024</v>
@@ -2032,7 +2032,7 @@
         <v>8147</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44">
         <v>2024</v>
@@ -2049,7 +2049,7 @@
         <v>8150</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45">
         <v>2024</v>
@@ -2066,7 +2066,7 @@
         <v>8151</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46">
         <v>2024</v>
@@ -2083,7 +2083,7 @@
         <v>8162</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47">
         <v>2024</v>
@@ -2100,7 +2100,7 @@
         <v>8163</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>2024</v>
@@ -2117,7 +2117,7 @@
         <v>8182</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49">
         <v>2024</v>
@@ -2134,7 +2134,7 @@
         <v>8185</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>2024</v>
@@ -2151,7 +2151,7 @@
         <v>8209</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51">
         <v>2024</v>
@@ -2168,7 +2168,7 @@
         <v>8210</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52">
         <v>2024</v>
@@ -2185,7 +2185,7 @@
         <v>8281</v>
       </c>
       <c r="B53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C53">
         <v>2024</v>
@@ -2202,7 +2202,7 @@
         <v>8301</v>
       </c>
       <c r="B54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54">
         <v>2024</v>
@@ -2219,7 +2219,7 @@
         <v>8305</v>
       </c>
       <c r="B55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55">
         <v>2024</v>
@@ -2236,7 +2236,7 @@
         <v>8312</v>
       </c>
       <c r="B56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56">
         <v>2024</v>
@@ -2253,7 +2253,7 @@
         <v>8313</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C57">
         <v>2024</v>
@@ -2270,7 +2270,7 @@
         <v>8320</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C58">
         <v>2024</v>
@@ -2287,7 +2287,7 @@
         <v>8321</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59">
         <v>2024</v>
@@ -2304,7 +2304,7 @@
         <v>8322</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C60">
         <v>2024</v>
@@ -2321,7 +2321,7 @@
         <v>8323</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61">
         <v>2024</v>
@@ -2338,7 +2338,7 @@
         <v>8459</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62">
         <v>2024</v>
@@ -2355,7 +2355,7 @@
         <v>8460</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63">
         <v>2024</v>
@@ -2372,7 +2372,7 @@
         <v>8461</v>
       </c>
       <c r="B64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C64">
         <v>2024</v>
@@ -2389,7 +2389,7 @@
         <v>8462</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65">
         <v>2024</v>
@@ -2406,7 +2406,7 @@
         <v>8463</v>
       </c>
       <c r="B66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C66">
         <v>2024</v>
@@ -2423,7 +2423,7 @@
         <v>8501</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67">
         <v>2024</v>
@@ -2440,7 +2440,7 @@
         <v>8502</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68">
         <v>2024</v>
@@ -2457,7 +2457,7 @@
         <v>8504</v>
       </c>
       <c r="B69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69">
         <v>2024</v>
@@ -2474,7 +2474,7 @@
         <v>8506</v>
       </c>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70">
         <v>2024</v>
@@ -2491,7 +2491,7 @@
         <v>8507</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C71">
         <v>2024</v>
@@ -2508,7 +2508,7 @@
         <v>8508</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72">
         <v>2024</v>
@@ -2525,7 +2525,7 @@
         <v>8601</v>
       </c>
       <c r="B73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C73">
         <v>2024</v>
@@ -2542,7 +2542,7 @@
         <v>8602</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C74">
         <v>2024</v>
@@ -2559,7 +2559,7 @@
         <v>8603</v>
       </c>
       <c r="B75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C75">
         <v>2024</v>
@@ -2576,7 +2576,7 @@
         <v>8604</v>
       </c>
       <c r="B76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C76">
         <v>2024</v>
@@ -2593,7 +2593,7 @@
         <v>8605</v>
       </c>
       <c r="B77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C77">
         <v>2024</v>
@@ -2610,7 +2610,7 @@
         <v>8606</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C78">
         <v>2024</v>
@@ -2627,7 +2627,7 @@
         <v>8607</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C79">
         <v>2024</v>
@@ -2644,7 +2644,7 @@
         <v>8609</v>
       </c>
       <c r="B80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C80">
         <v>2024</v>
@@ -2661,7 +2661,7 @@
         <v>8610</v>
       </c>
       <c r="B81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C81">
         <v>2024</v>
@@ -2678,7 +2678,7 @@
         <v>8701</v>
       </c>
       <c r="B82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C82">
         <v>2024</v>
@@ -2695,7 +2695,7 @@
         <v>8702</v>
       </c>
       <c r="B83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83">
         <v>2024</v>
@@ -2712,7 +2712,7 @@
         <v>8710</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C84">
         <v>2024</v>
@@ -2729,7 +2729,7 @@
         <v>8711</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C85">
         <v>2024</v>
@@ -2746,7 +2746,7 @@
         <v>8712</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C86">
         <v>2024</v>
@@ -2763,7 +2763,7 @@
         <v>8801</v>
       </c>
       <c r="B87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C87">
         <v>2024</v>
@@ -2780,7 +2780,7 @@
         <v>8802</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C88">
         <v>2024</v>
@@ -2797,7 +2797,7 @@
         <v>8803</v>
       </c>
       <c r="B89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C89">
         <v>2024</v>
@@ -2814,7 +2814,7 @@
         <v>8804</v>
       </c>
       <c r="B90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90">
         <v>2024</v>
@@ -2831,7 +2831,7 @@
         <v>8805</v>
       </c>
       <c r="B91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C91">
         <v>2024</v>
@@ -2848,7 +2848,7 @@
         <v>8806</v>
       </c>
       <c r="B92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C92">
         <v>2024</v>
@@ -2865,7 +2865,7 @@
         <v>8807</v>
       </c>
       <c r="B93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93">
         <v>2024</v>
@@ -2882,7 +2882,7 @@
         <v>8808</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94">
         <v>2024</v>
@@ -2899,7 +2899,7 @@
         <v>8810</v>
       </c>
       <c r="B95" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95">
         <v>2024</v>
@@ -2916,7 +2916,7 @@
         <v>8811</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96">
         <v>2024</v>
@@ -2933,7 +2933,7 @@
         <v>8812</v>
       </c>
       <c r="B97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97">
         <v>2024</v>
@@ -2950,7 +2950,7 @@
         <v>8814</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C98">
         <v>2024</v>
@@ -2967,7 +2967,7 @@
         <v>8815</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C99">
         <v>2024</v>
@@ -2984,7 +2984,7 @@
         <v>8816</v>
       </c>
       <c r="B100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C100">
         <v>2024</v>
@@ -3001,7 +3001,7 @@
         <v>8817</v>
       </c>
       <c r="B101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C101">
         <v>2024</v>
@@ -3018,7 +3018,7 @@
         <v>8818</v>
       </c>
       <c r="B102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C102">
         <v>2024</v>
@@ -3035,7 +3035,7 @@
         <v>8819</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C103">
         <v>2024</v>
@@ -3052,7 +3052,7 @@
         <v>8820</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104">
         <v>2024</v>
@@ -3069,7 +3069,7 @@
         <v>8822</v>
       </c>
       <c r="B105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C105">
         <v>2024</v>
@@ -3086,7 +3086,7 @@
         <v>8881</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C106">
         <v>2024</v>
@@ -3103,7 +3103,7 @@
         <v>8882</v>
       </c>
       <c r="B107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C107">
         <v>2024</v>
@@ -3120,7 +3120,7 @@
         <v>8885</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C108">
         <v>2024</v>
@@ -3137,7 +3137,7 @@
         <v>8887</v>
       </c>
       <c r="B109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C109">
         <v>2024</v>
@@ -3154,7 +3154,7 @@
         <v>8888</v>
       </c>
       <c r="B110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C110">
         <v>2024</v>
@@ -3171,7 +3171,7 @@
         <v>8890</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C111">
         <v>2024</v>
@@ -3188,7 +3188,7 @@
         <v>8892</v>
       </c>
       <c r="B112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C112">
         <v>2024</v>
@@ -3205,7 +3205,7 @@
         <v>8893</v>
       </c>
       <c r="B113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C113">
         <v>2024</v>
@@ -3222,7 +3222,7 @@
         <v>8894</v>
       </c>
       <c r="B114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C114">
         <v>2024</v>
@@ -3239,7 +3239,7 @@
         <v>8895</v>
       </c>
       <c r="B115" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C115">
         <v>2024</v>
@@ -3256,7 +3256,7 @@
         <v>8896</v>
       </c>
       <c r="B116" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C116">
         <v>2024</v>
@@ -3273,7 +3273,7 @@
         <v>8897</v>
       </c>
       <c r="B117" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C117">
         <v>2024</v>
@@ -3290,7 +3290,7 @@
         <v>8898</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C118">
         <v>2024</v>
@@ -3307,7 +3307,7 @@
         <v>8899</v>
       </c>
       <c r="B119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C119">
         <v>2024</v>
@@ -3324,7 +3324,7 @@
         <v>8901</v>
       </c>
       <c r="B120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C120">
         <v>2024</v>
@@ -3341,7 +3341,7 @@
         <v>8902</v>
       </c>
       <c r="B121" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C121">
         <v>2024</v>
@@ -3358,7 +3358,7 @@
         <v>8903</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C122">
         <v>2024</v>

--- a/data til pbi/Passasjertall_metropendel.xlsx
+++ b/data til pbi/Passasjertall_metropendel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\bypakke_grenland\data til pbi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BB501A-ACCF-4B35-A895-B7C2856CDDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40917252-46AB-4D89-B5EE-2603D8461B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26430" yWindow="150" windowWidth="19140" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
